--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 10:04:33</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:21:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:21:13</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:51:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:51:56</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:00:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:00:29</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:21:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:21:22</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:32:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:32:58</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:41:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:41:42</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:50:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:50:42</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:00:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:00:10</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:20:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:20:11</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:35:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:35:33</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:45:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:45:30</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:54:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:54:18</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:03:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:03:06</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:21:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:21:26</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:31:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:31:32</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:40:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:40:50</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:49:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:49:56</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:58:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:58:55</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:19:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:19:13</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:35:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:35:56</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:46:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:46:13</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:55:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:55:13</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:06:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:06:58</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:22:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 09:38:45</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 10:01:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 10:01:58</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 10:26:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 10:26:56</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 10:37:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 10:37:26</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 10:46:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 10:46:06</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 10:55:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 10:55:07</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:12:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:12:01</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:27:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:27:45</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:39:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:39:01</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:47:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:47:27</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:56:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:56:15</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:17:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:17:09</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:34:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:34:44</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:46:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:46:45</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 12:55:29</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -15299,7 +15299,7 @@
         <v>145</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>45</v>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 12:55:29</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:22:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:22:00</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 01:49:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 01:49:27</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:04:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:04:52</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:25:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:25:18</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:36:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:36:01</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:44:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:44:51</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 02:53:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 02:53:45</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:11:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:11:51</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:31:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:31:28</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:43:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:43:54</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 03:54:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 03:54:25</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:07:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:07:06</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:21:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:21:30</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:30:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:30:19</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:39:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:39:24</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:47:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:47:58</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 04:56:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 04:56:55</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 05:16:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 05:16:12</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 05:29:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 05:29:37</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 05:38:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 05:38:33</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 05:47:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 05:47:35</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 05:56:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 05:56:23</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 06:13:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 06:13:15</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 06:24:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 06:24:33</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 06:34:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 06:34:53</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 06:43:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 06:43:39</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 06:52:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 06:52:46</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 07:04:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 07:04:43</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 07:22:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 07:22:56</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 07:32:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 07:32:49</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 07:42:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 07:42:13</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 07:50:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 07:50:39</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 07:59:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 07:59:31</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 08:20:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 08:20:33</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 08:29:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 08:29:00</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 08:38:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 08:38:03</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 08:47:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-04.xlsx
+++ b/sigbm_download_2023-01-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 08:47:01</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 08:56:36</t>
   </si>
   <si>
     <t>ID Barragem</t>
